--- a/hardware_kit/2025.F.EET103_BOM.xlsx
+++ b/hardware_kit/2025.F.EET103_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://k2controls-my.sharepoint.com/personal/keith_k2controls_net/Documents/NMC/courses/eet103/hardware_kit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAEBB5D5-45A3-4136-BF8A-840CEB9D5CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{BAEBB5D5-45A3-4136-BF8A-840CEB9D5CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDE5F993-AE8C-4CF4-B428-5A45E760A473}"/>
   <bookViews>
-    <workbookView xWindow="-24789" yWindow="883" windowWidth="24892" windowHeight="14914" xr2:uid="{C5A32510-B305-4331-9E1B-79CCF2794904}"/>
+    <workbookView xWindow="21490" yWindow="-110" windowWidth="21820" windowHeight="37900" xr2:uid="{C5A32510-B305-4331-9E1B-79CCF2794904}"/>
   </bookViews>
   <sheets>
     <sheet name="EET103" sheetId="4" r:id="rId1"/>
@@ -548,14 +548,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -938,10 +938,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1270,8 +1266,8 @@
   </sheetPr>
   <dimension ref="A1:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -1298,11 +1294,11 @@
       <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -1311,11 +1307,11 @@
       <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:10" ht="16" thickBot="1">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
       <c r="F3" s="21"/>
@@ -1324,11 +1320,11 @@
       <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:10" ht="16" thickBot="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
       <c r="F4" s="21"/>
@@ -1337,11 +1333,11 @@
       <c r="I4" s="21"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A5" s="33">
-        <v>46239</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="34">
+        <v>45874</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
@@ -2178,12 +2174,12 @@
       <c r="E36" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F36" s="34" t="s">
+      <c r="F36" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="9">
@@ -2733,6 +2729,18 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="F52:I52"/>
+    <mergeCell ref="F54:I54"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="F37:I37"/>
     <mergeCell ref="F49:I49"/>
     <mergeCell ref="F36:I36"/>
     <mergeCell ref="F47:I47"/>
@@ -2746,18 +2754,6 @@
     <mergeCell ref="F39:I39"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="F41:I41"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="F52:I52"/>
-    <mergeCell ref="F54:I54"/>
-    <mergeCell ref="F55:I55"/>
   </mergeCells>
   <conditionalFormatting sqref="E37:E57">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
